--- a/db/import/sales_reps.xlsx
+++ b/db/import/sales_reps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="18300" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>account</t>
   </si>
@@ -36,37 +36,7 @@
     <t>Jeremy Pastika</t>
   </si>
   <si>
-    <t>jpastika@sitech-se.com</t>
-  </si>
-  <si>
-    <t>Greg Hasty</t>
-  </si>
-  <si>
-    <t>ghasty@sitech-se.com</t>
-  </si>
-  <si>
-    <t>Mike Nixon</t>
-  </si>
-  <si>
-    <t>mnixon@sitech-se.com</t>
-  </si>
-  <si>
-    <t>Rob Curry</t>
-  </si>
-  <si>
-    <t>rcurry@sitech-se.com</t>
-  </si>
-  <si>
-    <t>Richard Stagg</t>
-  </si>
-  <si>
-    <t>rstagg@sitech-se.com</t>
-  </si>
-  <si>
-    <t>Jim Hiler</t>
-  </si>
-  <si>
-    <t>jhiler@sitech-se.com</t>
+    <t>jpastika@spokesystems.com</t>
   </si>
 </sst>
 </file>
@@ -446,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -482,84 +452,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/db/import/sales_reps.xlsx
+++ b/db/import/sales_reps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="18300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>account</t>
   </si>
@@ -36,7 +36,37 @@
     <t>Jeremy Pastika</t>
   </si>
   <si>
-    <t>jpastika@spokesystems.com</t>
+    <t>jpastika@sitech-se.com</t>
+  </si>
+  <si>
+    <t>Greg Hasty</t>
+  </si>
+  <si>
+    <t>ghasty@sitech-se.com</t>
+  </si>
+  <si>
+    <t>Mike Nixon</t>
+  </si>
+  <si>
+    <t>mnixon@sitech-se.com</t>
+  </si>
+  <si>
+    <t>Rob Curry</t>
+  </si>
+  <si>
+    <t>rcurry@sitech-se.com</t>
+  </si>
+  <si>
+    <t>Richard Stagg</t>
+  </si>
+  <si>
+    <t>rstagg@sitech-se.com</t>
+  </si>
+  <si>
+    <t>Jim Hiler</t>
+  </si>
+  <si>
+    <t>jhiler@sitech-se.com</t>
   </si>
 </sst>
 </file>
@@ -416,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -452,9 +482,84 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
